--- a/utils/rebalance_tools/blog_posts/June_2019.xlsx
+++ b/utils/rebalance_tools/blog_posts/June_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\blog_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1C8B5-B351-40A9-A742-55BA38992641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0B524-00C8-4B54-A1CD-0A03B82A1462}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="105" windowWidth="21585" windowHeight="15225" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sharpe" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="64">
   <si>
     <t>ten</t>
   </si>
@@ -188,31 +188,7 @@
     <t>TRX</t>
   </si>
   <si>
-    <t>MONA</t>
-  </si>
-  <si>
-    <t>RDD</t>
-  </si>
-  <si>
     <t>XTZ</t>
-  </si>
-  <si>
-    <t>BTG XTZ</t>
-  </si>
-  <si>
-    <t>BSV ZIL</t>
-  </si>
-  <si>
-    <t>MONA RDD ZIL</t>
-  </si>
-  <si>
-    <t>BTG LRC PPT</t>
-  </si>
-  <si>
-    <t>MONA RDD</t>
-  </si>
-  <si>
-    <t>LRC PPT</t>
   </si>
   <si>
     <t>BNB</t>
@@ -229,13 +205,34 @@
   <si>
     <t>ETC</t>
   </si>
+  <si>
+    <t>ARK GXS HOT</t>
+  </si>
+  <si>
+    <t>AION ICX POLY</t>
+  </si>
+  <si>
+    <t>AION POLY</t>
+  </si>
+  <si>
+    <t>ARK HOT</t>
+  </si>
+  <si>
+    <t>AION</t>
+  </si>
+  <si>
+    <t>GXS</t>
+  </si>
+  <si>
+    <t>ICX POLY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -549,10 +546,10 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ten</c:v>
+                  <c:v>forty</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -710,14 +707,9 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="0"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-14A1-45B8-A67C-A641BD263CC0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -730,24 +722,14 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-14A1-45B8-A67C-A641BD263CC0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-14A1-45B8-A67C-A641BD263CC0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -829,34 +811,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>forty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>application</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERC20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>twenty</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>platform</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>currency</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>ten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>twenty</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>forty</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>BTC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ETH</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>total</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>currency</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>platform</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>application</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ERC20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BTC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ETH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -868,34 +850,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-6.6962999999999995E-2</c:v>
+                  <c:v>-0.187915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.0685999999999997E-2</c:v>
+                  <c:v>-0.13311400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.1042999999999999E-2</c:v>
+                  <c:v>-0.118127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.5672999999999995E-2</c:v>
+                  <c:v>-0.12973299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.4107999999999998E-2</c:v>
+                  <c:v>-8.2141000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.8754999999999997E-2</c:v>
+                  <c:v>-6.1201999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.2639999999999996E-2</c:v>
+                  <c:v>-6.4283000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.9387000000000004E-2</c:v>
+                  <c:v>-7.3014999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.100185</c:v>
+                  <c:v>-6.9223000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.5958000000000001E-2</c:v>
+                  <c:v>-6.5365999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +922,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -973,11 +955,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-14A1-45B8-A67C-A641BD263CC0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1020,7 +997,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1053,14 +1030,9 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-14A1-45B8-A67C-A641BD263CC0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1093,11 +1065,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-14A1-45B8-A67C-A641BD263CC0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1241,34 +1208,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>forty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>application</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERC20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>twenty</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>platform</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>currency</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>ten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>twenty</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>forty</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>BTC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ETH</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>total</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>currency</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>platform</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>application</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ERC20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BTC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ETH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1280,34 +1247,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.133101</c:v>
+                  <c:v>0.24492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14874200000000001</c:v>
+                  <c:v>0.212115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14940300000000001</c:v>
+                  <c:v>0.203677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13117100000000001</c:v>
+                  <c:v>0.20184299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.139686</c:v>
+                  <c:v>0.12227200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13832700000000001</c:v>
+                  <c:v>8.6314000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.127883</c:v>
+                  <c:v>7.5198000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13395299999999999</c:v>
+                  <c:v>7.3958999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14325599999999999</c:v>
+                  <c:v>7.2190000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.110473</c:v>
+                  <c:v>6.7515000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,14 +1521,9 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F484-4E74-A7D1-6D022A97EA10}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1574,24 +1536,9 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1673,16 +1620,16 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>BNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BSV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRX</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BTC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ETH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>XRP</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XLM</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>LTC</c:v>
@@ -1691,16 +1638,16 @@
                   <c:v>BCH</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TRX</c:v>
+                  <c:v>ETH</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ADA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>EOS</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ADA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BSV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1712,34 +1659,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.100185</c:v>
+                  <c:v>-0.212341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.5958000000000001E-2</c:v>
+                  <c:v>-0.20938799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.2172000000000004E-2</c:v>
+                  <c:v>-0.23106099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.0944999999999997E-2</c:v>
+                  <c:v>-9.5989000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.6406000000000002E-2</c:v>
+                  <c:v>-0.19098699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.1817999999999998E-2</c:v>
+                  <c:v>-8.0144999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10778799999999999</c:v>
+                  <c:v>-6.9223000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.0626000000000002E-2</c:v>
+                  <c:v>-0.103875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.9896E-2</c:v>
+                  <c:v>-0.1179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.123071</c:v>
+                  <c:v>-0.180447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1784,7 +1731,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="3"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1817,11 +1764,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F484-4E74-A7D1-6D022A97EA10}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1864,7 +1806,7 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1897,51 +1839,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="DDEBCF"/>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:srgbClr val="9CB86E"/>
-                  </a:gs>
-                  <a:gs pos="26000">
-                    <a:srgbClr val="156B13"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2085,16 +1982,16 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>BNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BSV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRX</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>BTC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ETH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>XRP</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>XLM</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>LTC</c:v>
@@ -2103,16 +2000,16 @@
                   <c:v>BCH</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TRX</c:v>
+                  <c:v>ETH</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ADA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>EOS</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ADA</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BSV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2124,34 +2021,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.14325599999999999</c:v>
+                  <c:v>0.20694799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.110473</c:v>
+                  <c:v>0.17419200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26519100000000001</c:v>
+                  <c:v>0.14938000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19455900000000001</c:v>
+                  <c:v>9.3994999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12429999999999999</c:v>
+                  <c:v>8.8089000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15976199999999999</c:v>
+                  <c:v>7.3143E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11349099999999999</c:v>
+                  <c:v>7.2190000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.129967</c:v>
+                  <c:v>6.8112000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17217099999999999</c:v>
+                  <c:v>5.9784999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68209200000000003</c:v>
+                  <c:v>4.7135000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2718,7 +2615,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2844,43 +2741,43 @@
       </c>
       <c r="C4" s="19">
         <f>P4</f>
-        <v>568.51994400000001</v>
+        <v>904.97552299999995</v>
       </c>
       <c r="D4" s="19">
         <f t="shared" ref="D4:L4" si="0">Q4</f>
-        <v>552.78390200000001</v>
+        <v>898.92678599999999</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" si="0"/>
-        <v>77.098057999999995</v>
+        <v>96.815645000000004</v>
       </c>
       <c r="F4" s="19">
         <f t="shared" si="0"/>
-        <v>240.20960099999999</v>
+        <v>380.92577699999998</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="0"/>
-        <v>31.400697999999998</v>
+        <v>50.857877000000002</v>
       </c>
       <c r="H4" s="19">
         <f t="shared" si="0"/>
-        <v>19.586334999999998</v>
+        <v>29.575050999999998</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>24.912528999999999</v>
+        <v>33.068381000000002</v>
       </c>
       <c r="J4" s="19">
         <f t="shared" si="0"/>
-        <v>74.736980000000003</v>
+        <v>101.570238</v>
       </c>
       <c r="K4" s="19">
         <f t="shared" si="0"/>
-        <v>5288.21234</v>
+        <v>8539.3425800000005</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" si="0"/>
-        <v>162.29101</v>
+        <v>268.43301000000002</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="52"/>
@@ -2888,34 +2785,34 @@
         <v>9</v>
       </c>
       <c r="P4" s="3">
-        <v>568.51994400000001</v>
+        <v>904.97552299999995</v>
       </c>
       <c r="Q4" s="3">
-        <v>552.78390200000001</v>
+        <v>898.92678599999999</v>
       </c>
       <c r="R4" s="3">
-        <v>77.098057999999995</v>
+        <v>96.815645000000004</v>
       </c>
       <c r="S4" s="3">
-        <v>240.20960099999999</v>
+        <v>380.92577699999998</v>
       </c>
       <c r="T4" s="3">
-        <v>31.400697999999998</v>
+        <v>50.857877000000002</v>
       </c>
       <c r="U4" s="3">
-        <v>19.586334999999998</v>
+        <v>29.575050999999998</v>
       </c>
       <c r="V4" s="3">
-        <v>24.912528999999999</v>
+        <v>33.068381000000002</v>
       </c>
       <c r="W4" s="3">
-        <v>74.736980000000003</v>
+        <v>101.570238</v>
       </c>
       <c r="X4" s="3">
-        <v>5288.21234</v>
+        <v>8539.3425800000005</v>
       </c>
       <c r="Y4" s="3">
-        <v>162.29101</v>
+        <v>268.43301000000002</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1">
@@ -2925,43 +2822,43 @@
       </c>
       <c r="C5" s="21">
         <f t="shared" ref="C5:C10" si="1">P5</f>
-        <v>904.97552299999995</v>
+        <v>1160.152554</v>
       </c>
       <c r="D5" s="21">
         <f t="shared" ref="D5:D10" si="2">Q5</f>
-        <v>898.92678599999999</v>
+        <v>981.82903999999996</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" ref="E5:E10" si="3">R5</f>
-        <v>96.815645000000004</v>
+        <v>95.868577000000002</v>
       </c>
       <c r="F5" s="21">
         <f t="shared" ref="F5:F10" si="4">S5</f>
-        <v>380.92577699999998</v>
+        <v>481.16753199999999</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G10" si="5">T5</f>
-        <v>50.857877000000002</v>
+        <v>68.348928000000001</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" ref="H5:H10" si="6">U5</f>
-        <v>29.575050999999998</v>
+        <v>29.404806000000001</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" ref="I5:I10" si="7">V5</f>
-        <v>33.068381000000002</v>
+        <v>40.001116000000003</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" ref="J5:J10" si="8">W5</f>
-        <v>101.570238</v>
+        <v>118.018603</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K10" si="9">X5</f>
-        <v>8677.0454200000004</v>
+        <v>11629.799129999999</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" ref="L5:L10" si="10">Y5</f>
-        <v>267.28946000000002</v>
+        <v>302.32461999999998</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
@@ -2969,34 +2866,34 @@
         <v>10</v>
       </c>
       <c r="P5" s="5">
-        <v>904.97552299999995</v>
+        <v>1160.152554</v>
       </c>
       <c r="Q5" s="5">
-        <v>898.92678599999999</v>
+        <v>981.82903999999996</v>
       </c>
       <c r="R5" s="5">
-        <v>96.815645000000004</v>
+        <v>95.868577000000002</v>
       </c>
       <c r="S5" s="5">
-        <v>380.92577699999998</v>
+        <v>481.16753199999999</v>
       </c>
       <c r="T5" s="5">
-        <v>50.857877000000002</v>
+        <v>68.348928000000001</v>
       </c>
       <c r="U5" s="5">
-        <v>29.575050999999998</v>
+        <v>29.404806000000001</v>
       </c>
       <c r="V5" s="5">
-        <v>33.068381000000002</v>
+        <v>40.001116000000003</v>
       </c>
       <c r="W5" s="5">
-        <v>101.570238</v>
+        <v>118.018603</v>
       </c>
       <c r="X5" s="5">
-        <v>8677.0454200000004</v>
+        <v>11629.799129999999</v>
       </c>
       <c r="Y5" s="5">
-        <v>267.28946000000002</v>
+        <v>302.32461999999998</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="27.75" thickBot="1">
@@ -3006,43 +2903,43 @@
       </c>
       <c r="C6" s="19">
         <f t="shared" si="1"/>
-        <v>89.088187000000005</v>
+        <v>66.458295000000007</v>
       </c>
       <c r="D6" s="19">
         <f t="shared" si="2"/>
-        <v>98.196423999999993</v>
+        <v>104.26554899999999</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="3"/>
-        <v>97.513315000000006</v>
+        <v>129.309336</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" si="4"/>
-        <v>87.658446999999995</v>
+        <v>65.470264</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="5"/>
-        <v>90.350740999999999</v>
+        <v>67.572783999999999</v>
       </c>
       <c r="H6" s="19">
         <f t="shared" si="6"/>
-        <v>105.04359599999999</v>
+        <v>88.485303999999999</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="7"/>
-        <v>87.140945000000002</v>
+        <v>111.180987</v>
       </c>
       <c r="J6" s="19">
         <f t="shared" si="8"/>
-        <v>89.441225000000003</v>
+        <v>104.54899399999999</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" si="9"/>
-        <v>88.359609000000006</v>
+        <v>62.085079999999998</v>
       </c>
       <c r="L6" s="23">
         <f t="shared" si="10"/>
-        <v>71.216690999999997</v>
+        <v>62.240537000000003</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
@@ -3050,34 +2947,34 @@
         <v>11</v>
       </c>
       <c r="P6" s="3">
-        <v>89.088187000000005</v>
+        <v>66.458295000000007</v>
       </c>
       <c r="Q6" s="3">
-        <v>98.196423999999993</v>
+        <v>104.26554899999999</v>
       </c>
       <c r="R6" s="3">
-        <v>97.513315000000006</v>
+        <v>129.309336</v>
       </c>
       <c r="S6" s="3">
-        <v>87.658446999999995</v>
+        <v>65.470264</v>
       </c>
       <c r="T6" s="3">
-        <v>90.350740999999999</v>
+        <v>67.572783999999999</v>
       </c>
       <c r="U6" s="3">
-        <v>105.04359599999999</v>
+        <v>88.485303999999999</v>
       </c>
       <c r="V6" s="3">
-        <v>87.140945000000002</v>
+        <v>111.180987</v>
       </c>
       <c r="W6" s="3">
-        <v>89.441225000000003</v>
+        <v>104.54899399999999</v>
       </c>
       <c r="X6" s="3">
-        <v>88.359609000000006</v>
+        <v>62.085079999999998</v>
       </c>
       <c r="Y6" s="3">
-        <v>71.216690999999997</v>
+        <v>62.240537000000003</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="24.75" thickBot="1">
@@ -3087,43 +2984,43 @@
       </c>
       <c r="C7" s="21">
         <f t="shared" si="1"/>
-        <v>4.6630890000000003</v>
+        <v>3.478586</v>
       </c>
       <c r="D7" s="21">
         <f t="shared" si="2"/>
-        <v>5.1398359999999998</v>
+        <v>5.4575079999999998</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="3"/>
-        <v>5.1040799999999997</v>
+        <v>6.7683600000000004</v>
       </c>
       <c r="F7" s="21">
         <f t="shared" si="4"/>
-        <v>4.5882529999999999</v>
+        <v>3.4268700000000001</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="5"/>
-        <v>4.7291740000000004</v>
+        <v>3.536921</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="6"/>
-        <v>5.4982329999999999</v>
+        <v>4.631532</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="7"/>
-        <v>4.5611660000000001</v>
+        <v>5.8194790000000003</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="8"/>
-        <v>4.6815680000000004</v>
+        <v>5.4723439999999997</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="9"/>
-        <v>4.6249529999999996</v>
+        <v>3.249682</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="10"/>
-        <v>3.727652</v>
+        <v>3.257819</v>
       </c>
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
@@ -3131,34 +3028,34 @@
         <v>12</v>
       </c>
       <c r="P7" s="5">
-        <v>4.6630890000000003</v>
+        <v>3.478586</v>
       </c>
       <c r="Q7" s="5">
-        <v>5.1398359999999998</v>
+        <v>5.4575079999999998</v>
       </c>
       <c r="R7" s="5">
-        <v>5.1040799999999997</v>
+        <v>6.7683600000000004</v>
       </c>
       <c r="S7" s="5">
-        <v>4.5882529999999999</v>
+        <v>3.4268700000000001</v>
       </c>
       <c r="T7" s="5">
-        <v>4.7291740000000004</v>
+        <v>3.536921</v>
       </c>
       <c r="U7" s="5">
-        <v>5.4982329999999999</v>
+        <v>4.631532</v>
       </c>
       <c r="V7" s="5">
-        <v>4.5611660000000001</v>
+        <v>5.8194790000000003</v>
       </c>
       <c r="W7" s="5">
-        <v>4.6815680000000004</v>
+        <v>5.4723439999999997</v>
       </c>
       <c r="X7" s="5">
-        <v>4.6249529999999996</v>
+        <v>3.249682</v>
       </c>
       <c r="Y7" s="5">
-        <v>3.727652</v>
+        <v>3.257819</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1">
@@ -3168,43 +3065,43 @@
       </c>
       <c r="C8" s="14">
         <f t="shared" si="1"/>
-        <v>0.59180999999999995</v>
+        <v>0.28197100000000003</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="2"/>
-        <v>0.62618099999999999</v>
+        <v>9.2224E-2</v>
       </c>
       <c r="E8" s="14">
         <f t="shared" si="3"/>
-        <v>0.255747</v>
+        <v>-9.7820000000000008E-3</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="4"/>
-        <v>0.58580600000000005</v>
+        <v>0.26315300000000003</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="5"/>
-        <v>0.61964200000000003</v>
+        <v>0.34392</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="6"/>
-        <v>0.50998399999999999</v>
+        <v>-5.7559999999999998E-3</v>
       </c>
       <c r="I8" s="14">
         <f t="shared" si="7"/>
-        <v>0.32738</v>
+        <v>0.209648</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="8"/>
-        <v>0.35903600000000002</v>
+        <v>0.161941</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="9"/>
-        <v>0.64082799999999995</v>
+        <v>0.36190800000000001</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="10"/>
-        <v>0.646976</v>
+        <v>0.12625700000000001</v>
       </c>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
@@ -3212,34 +3109,34 @@
         <v>13</v>
       </c>
       <c r="P8" s="3">
-        <v>0.59180999999999995</v>
+        <v>0.28197100000000003</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.62618099999999999</v>
+        <v>9.2224E-2</v>
       </c>
       <c r="R8" s="3">
-        <v>0.255747</v>
+        <v>-9.7820000000000008E-3</v>
       </c>
       <c r="S8" s="3">
-        <v>0.58580600000000005</v>
+        <v>0.26315300000000003</v>
       </c>
       <c r="T8" s="3">
-        <v>0.61964200000000003</v>
+        <v>0.34392</v>
       </c>
       <c r="U8" s="3">
-        <v>0.50998399999999999</v>
+        <v>-5.7559999999999998E-3</v>
       </c>
       <c r="V8" s="3">
-        <v>0.32738</v>
+        <v>0.209648</v>
       </c>
       <c r="W8" s="3">
-        <v>0.35903600000000002</v>
+        <v>0.161941</v>
       </c>
       <c r="X8" s="3">
-        <v>0.64082799999999995</v>
+        <v>0.36190800000000001</v>
       </c>
       <c r="Y8" s="3">
-        <v>0.646976</v>
+        <v>0.12625700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1">
@@ -3249,43 +3146,43 @@
       </c>
       <c r="C9" s="21">
         <f t="shared" si="1"/>
-        <v>7.081232</v>
+        <v>5.8197619999999999</v>
       </c>
       <c r="D9" s="21">
         <f t="shared" si="2"/>
-        <v>6.7828739999999996</v>
+        <v>2.1376719999999998</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="3"/>
-        <v>3.966771</v>
+        <v>0.97612699999999997</v>
       </c>
       <c r="F9" s="21">
         <f t="shared" si="4"/>
-        <v>7.1445040000000004</v>
+        <v>5.6254600000000003</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="5"/>
-        <v>7.1494340000000003</v>
+        <v>6.5280940000000003</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="6"/>
-        <v>5.795134</v>
+        <v>1.310929</v>
       </c>
       <c r="I9" s="21">
         <f t="shared" si="7"/>
-        <v>4.8369479999999996</v>
+        <v>3.0911870000000001</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="8"/>
-        <v>5.0255380000000001</v>
+        <v>2.7780040000000001</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="9"/>
-        <v>6.8778220000000001</v>
+        <v>6.7258079999999998</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="10"/>
-        <v>9.2621540000000007</v>
+        <v>3.157079</v>
       </c>
       <c r="M9" s="52"/>
       <c r="N9" s="52"/>
@@ -3293,34 +3190,34 @@
         <v>14</v>
       </c>
       <c r="P9" s="5">
-        <v>7.081232</v>
+        <v>5.8197619999999999</v>
       </c>
       <c r="Q9" s="5">
-        <v>6.7828739999999996</v>
+        <v>2.1376719999999998</v>
       </c>
       <c r="R9" s="5">
-        <v>3.966771</v>
+        <v>0.97612699999999997</v>
       </c>
       <c r="S9" s="5">
-        <v>7.1445040000000004</v>
+        <v>5.6254600000000003</v>
       </c>
       <c r="T9" s="5">
-        <v>7.1494340000000003</v>
+        <v>6.5280940000000003</v>
       </c>
       <c r="U9" s="5">
-        <v>5.795134</v>
+        <v>1.310929</v>
       </c>
       <c r="V9" s="5">
-        <v>4.8369479999999996</v>
+        <v>3.0911870000000001</v>
       </c>
       <c r="W9" s="5">
-        <v>5.0255380000000001</v>
+        <v>2.7780040000000001</v>
       </c>
       <c r="X9" s="5">
-        <v>6.8778220000000001</v>
+        <v>6.7258079999999998</v>
       </c>
       <c r="Y9" s="5">
-        <v>9.2621540000000007</v>
+        <v>3.157079</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1">
@@ -3330,35 +3227,35 @@
       </c>
       <c r="C10" s="19">
         <f t="shared" si="1"/>
-        <v>0.538941</v>
+        <v>-0.86646500000000004</v>
       </c>
       <c r="D10" s="19">
         <f t="shared" si="2"/>
-        <v>0.96637200000000001</v>
+        <v>-2.6108030000000002</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="3"/>
-        <v>-3.1248019999999999</v>
+        <v>-3.100212</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="4"/>
-        <v>0.424682</v>
+        <v>-1.3621920000000001</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="5"/>
-        <v>0.98667800000000006</v>
+        <v>0.77020699999999997</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="6"/>
-        <v>1.5233999999999999E-2</v>
+        <v>-4.5029599999999999</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="7"/>
-        <v>-2.8231130000000002</v>
+        <v>-0.94406599999999996</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="8"/>
-        <v>-2.3869739999999999</v>
+        <v>-1.6585479999999999</v>
       </c>
       <c r="K10" s="19">
         <f t="shared" si="9"/>
@@ -3366,42 +3263,42 @@
       </c>
       <c r="L10" s="20">
         <f t="shared" si="10"/>
-        <v>0.75532999999999995</v>
+        <v>-3.752777</v>
       </c>
       <c r="M10" s="52"/>
       <c r="N10" s="52"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="5">
-        <v>0.538941</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.96637200000000001</v>
-      </c>
-      <c r="R10" s="5">
-        <v>-3.1248019999999999</v>
-      </c>
-      <c r="S10" s="5">
-        <v>0.424682</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0.98667800000000006</v>
-      </c>
-      <c r="U10" s="5">
-        <v>1.5233999999999999E-2</v>
-      </c>
-      <c r="V10" s="5">
-        <v>-2.8231130000000002</v>
-      </c>
-      <c r="W10" s="5">
-        <v>-2.3869739999999999</v>
-      </c>
-      <c r="X10" s="5">
+      <c r="P10" s="3">
+        <v>-0.86646500000000004</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-2.6108030000000002</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-3.100212</v>
+      </c>
+      <c r="S10" s="3">
+        <v>-1.3621920000000001</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.77020699999999997</v>
+      </c>
+      <c r="U10" s="3">
+        <v>-4.5029599999999999</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-0.94406599999999996</v>
+      </c>
+      <c r="W10" s="3">
+        <v>-1.6585479999999999</v>
+      </c>
+      <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="5">
-        <v>0.75532999999999995</v>
+      <c r="Y10" s="3">
+        <v>-3.752777</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -3577,43 +3474,43 @@
       </c>
       <c r="C14" s="21">
         <f t="shared" ref="C14:C19" si="12">P14</f>
-        <v>904.97552299999995</v>
+        <v>1160.152554</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" ref="D14:D19" si="13">Q14</f>
-        <v>898.92678599999999</v>
+        <v>981.82903999999996</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" ref="E14:E19" si="14">R14</f>
-        <v>96.815645000000004</v>
+        <v>95.868577000000002</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" ref="F14:F19" si="15">S14</f>
-        <v>380.92577699999998</v>
+        <v>481.16753199999999</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" ref="G14:G19" si="16">T14</f>
-        <v>50.857877000000002</v>
+        <v>68.348928000000001</v>
       </c>
       <c r="H14" s="21">
         <f t="shared" ref="H14:H19" si="17">U14</f>
-        <v>29.575050999999998</v>
+        <v>29.404806000000001</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" ref="I14:I19" si="18">V14</f>
-        <v>33.068381000000002</v>
+        <v>40.001116000000003</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" ref="J14:J19" si="19">W14</f>
-        <v>101.570238</v>
+        <v>118.018603</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" ref="K14:K19" si="20">X14</f>
-        <v>8677.0454200000004</v>
+        <v>11629.799129999999</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" ref="L14:L19" si="21">Y14</f>
-        <v>267.28946000000002</v>
+        <v>302.32461999999998</v>
       </c>
       <c r="M14" s="57"/>
       <c r="N14" s="58"/>
@@ -3621,34 +3518,34 @@
         <v>10</v>
       </c>
       <c r="P14" s="5">
-        <v>904.97552299999995</v>
+        <v>1160.152554</v>
       </c>
       <c r="Q14" s="5">
-        <v>898.92678599999999</v>
+        <v>981.82903999999996</v>
       </c>
       <c r="R14" s="5">
-        <v>96.815645000000004</v>
+        <v>95.868577000000002</v>
       </c>
       <c r="S14" s="5">
-        <v>380.92577699999998</v>
+        <v>481.16753199999999</v>
       </c>
       <c r="T14" s="5">
-        <v>50.857877000000002</v>
+        <v>68.348928000000001</v>
       </c>
       <c r="U14" s="5">
-        <v>29.575050999999998</v>
+        <v>29.404806000000001</v>
       </c>
       <c r="V14" s="5">
-        <v>33.068381000000002</v>
+        <v>40.001116000000003</v>
       </c>
       <c r="W14" s="5">
-        <v>101.570238</v>
+        <v>118.018603</v>
       </c>
       <c r="X14" s="5">
-        <v>8677.0454200000004</v>
+        <v>11629.799129999999</v>
       </c>
       <c r="Y14" s="5">
-        <v>267.28946000000002</v>
+        <v>302.32461999999998</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="27.75" thickBot="1">
@@ -3658,43 +3555,43 @@
       </c>
       <c r="C15" s="19">
         <f t="shared" si="12"/>
-        <v>70.661968999999999</v>
+        <v>69.449495999999996</v>
       </c>
       <c r="D15" s="19">
         <f t="shared" si="13"/>
-        <v>75.958894000000001</v>
+        <v>83.448652999999993</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="14"/>
-        <v>78.902158999999997</v>
+        <v>93.325289999999995</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" si="15"/>
-        <v>69.476135999999997</v>
+        <v>68.286956000000004</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="16"/>
-        <v>70.959637000000001</v>
+        <v>70.031148000000002</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="17"/>
-        <v>80.206975999999997</v>
+        <v>81.594835000000003</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="18"/>
-        <v>69.733535000000003</v>
+        <v>81.540861000000007</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="19"/>
-        <v>71.965059999999994</v>
+        <v>80.839871000000002</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="20"/>
-        <v>63.335104999999999</v>
+        <v>63.011007999999997</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="21"/>
-        <v>59.243121000000002</v>
+        <v>59.996447000000003</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="58"/>
@@ -3702,34 +3599,34 @@
         <v>11</v>
       </c>
       <c r="P15" s="3">
-        <v>70.661968999999999</v>
+        <v>69.449495999999996</v>
       </c>
       <c r="Q15" s="3">
-        <v>75.958894000000001</v>
+        <v>83.448652999999993</v>
       </c>
       <c r="R15" s="3">
-        <v>78.902158999999997</v>
+        <v>93.325289999999995</v>
       </c>
       <c r="S15" s="3">
-        <v>69.476135999999997</v>
+        <v>68.286956000000004</v>
       </c>
       <c r="T15" s="3">
-        <v>70.959637000000001</v>
+        <v>70.031148000000002</v>
       </c>
       <c r="U15" s="3">
-        <v>80.206975999999997</v>
+        <v>81.594835000000003</v>
       </c>
       <c r="V15" s="3">
-        <v>69.733535000000003</v>
+        <v>81.540861000000007</v>
       </c>
       <c r="W15" s="3">
-        <v>71.965059999999994</v>
+        <v>80.839871000000002</v>
       </c>
       <c r="X15" s="3">
-        <v>63.335104999999999</v>
+        <v>63.011007999999997</v>
       </c>
       <c r="Y15" s="3">
-        <v>59.243121000000002</v>
+        <v>59.996447000000003</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="24.75" thickBot="1">
@@ -3739,43 +3636,43 @@
       </c>
       <c r="C16" s="21">
         <f t="shared" si="12"/>
-        <v>3.6986159999999999</v>
+        <v>3.6351529999999999</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="13"/>
-        <v>3.97587</v>
+        <v>4.367902</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="14"/>
-        <v>4.1299279999999996</v>
+        <v>4.8848690000000001</v>
       </c>
       <c r="F16" s="21">
         <f t="shared" si="15"/>
-        <v>3.6365470000000002</v>
+        <v>3.574303</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="16"/>
-        <v>3.714197</v>
+        <v>3.6655980000000001</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="17"/>
-        <v>4.1982249999999999</v>
+        <v>4.2708690000000002</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="18"/>
-        <v>3.65002</v>
+        <v>4.2680439999999997</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="19"/>
-        <v>3.766823</v>
+        <v>4.2313520000000002</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="20"/>
-        <v>3.3151109999999999</v>
+        <v>3.2981470000000002</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="21"/>
-        <v>3.100927</v>
+        <v>3.140358</v>
       </c>
       <c r="M16" s="57"/>
       <c r="N16" s="58"/>
@@ -3783,34 +3680,34 @@
         <v>12</v>
       </c>
       <c r="P16" s="5">
-        <v>3.6986159999999999</v>
+        <v>3.6351529999999999</v>
       </c>
       <c r="Q16" s="5">
-        <v>3.97587</v>
+        <v>4.367902</v>
       </c>
       <c r="R16" s="5">
-        <v>4.1299279999999996</v>
+        <v>4.8848690000000001</v>
       </c>
       <c r="S16" s="5">
-        <v>3.6365470000000002</v>
+        <v>3.574303</v>
       </c>
       <c r="T16" s="5">
-        <v>3.714197</v>
+        <v>3.6655980000000001</v>
       </c>
       <c r="U16" s="5">
-        <v>4.1982249999999999</v>
+        <v>4.2708690000000002</v>
       </c>
       <c r="V16" s="5">
-        <v>3.65002</v>
+        <v>4.2680439999999997</v>
       </c>
       <c r="W16" s="5">
-        <v>3.766823</v>
+        <v>4.2313520000000002</v>
       </c>
       <c r="X16" s="5">
-        <v>3.3151109999999999</v>
+        <v>3.2981470000000002</v>
       </c>
       <c r="Y16" s="5">
-        <v>3.100927</v>
+        <v>3.140358</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1">
@@ -3820,43 +3717,43 @@
       </c>
       <c r="C17" s="14">
         <f t="shared" si="12"/>
-        <v>1.1297839999999999</v>
+        <v>1.7303219999999999</v>
       </c>
       <c r="D17" s="14">
         <f t="shared" si="13"/>
-        <v>1.3569260000000001</v>
+        <v>1.57429</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="14"/>
-        <v>0.68957500000000005</v>
+        <v>0.67304699999999995</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="15"/>
-        <v>1.1322639999999999</v>
+        <v>1.693376</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="16"/>
-        <v>1.258667</v>
+        <v>2.035469</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="17"/>
-        <v>0.87604800000000005</v>
+        <v>0.86524800000000002</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="18"/>
-        <v>0.88796399999999998</v>
+        <v>1.2837730000000001</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="19"/>
-        <v>0.99645600000000001</v>
+        <v>1.3197639999999999</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="20"/>
-        <v>1.279188</v>
+        <v>2.0547840000000002</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="21"/>
-        <v>0.97303399999999995</v>
+        <v>1.2316510000000001</v>
       </c>
       <c r="M17" s="57"/>
       <c r="N17" s="59"/>
@@ -3864,34 +3761,34 @@
         <v>13</v>
       </c>
       <c r="P17" s="3">
-        <v>1.1297839999999999</v>
+        <v>1.7303219999999999</v>
       </c>
       <c r="Q17" s="3">
-        <v>1.3569260000000001</v>
+        <v>1.57429</v>
       </c>
       <c r="R17" s="3">
-        <v>0.68957500000000005</v>
+        <v>0.67304699999999995</v>
       </c>
       <c r="S17" s="3">
-        <v>1.1322639999999999</v>
+        <v>1.693376</v>
       </c>
       <c r="T17" s="3">
-        <v>1.258667</v>
+        <v>2.035469</v>
       </c>
       <c r="U17" s="3">
-        <v>0.87604800000000005</v>
+        <v>0.86524800000000002</v>
       </c>
       <c r="V17" s="3">
-        <v>0.88796399999999998</v>
+        <v>1.2837730000000001</v>
       </c>
       <c r="W17" s="3">
-        <v>0.99645600000000001</v>
+        <v>1.3197639999999999</v>
       </c>
       <c r="X17" s="3">
-        <v>1.279188</v>
+        <v>2.0547840000000002</v>
       </c>
       <c r="Y17" s="3">
-        <v>0.97303399999999995</v>
+        <v>1.2316510000000001</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1">
@@ -3901,43 +3798,43 @@
       </c>
       <c r="C18" s="21">
         <f t="shared" si="12"/>
-        <v>4.7399079999999998</v>
+        <v>4.8631609999999998</v>
       </c>
       <c r="D18" s="21">
         <f t="shared" si="13"/>
-        <v>5.023301</v>
+        <v>3.9560040000000001</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="14"/>
-        <v>3.1344959999999999</v>
+        <v>2.1896559999999998</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="15"/>
-        <v>4.818721</v>
+        <v>4.8738919999999997</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="16"/>
-        <v>5.0561290000000003</v>
+        <v>5.2971000000000004</v>
       </c>
       <c r="H18" s="21">
         <f t="shared" si="17"/>
-        <v>3.6124390000000002</v>
+        <v>2.7847430000000002</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="18"/>
-        <v>4.1765699999999999</v>
+        <v>3.6219220000000001</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="19"/>
-        <v>4.3344829999999996</v>
+        <v>3.6699389999999998</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="20"/>
-        <v>5.6544109999999996</v>
+        <v>5.8538420000000002</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="21"/>
-        <v>5.0167489999999999</v>
+        <v>4.4873099999999999</v>
       </c>
       <c r="M18" s="57"/>
       <c r="N18" s="58"/>
@@ -3945,34 +3842,34 @@
         <v>14</v>
       </c>
       <c r="P18" s="5">
-        <v>4.7399079999999998</v>
+        <v>4.8631609999999998</v>
       </c>
       <c r="Q18" s="5">
-        <v>5.023301</v>
+        <v>3.9560040000000001</v>
       </c>
       <c r="R18" s="5">
-        <v>3.1344959999999999</v>
+        <v>2.1896559999999998</v>
       </c>
       <c r="S18" s="5">
-        <v>4.818721</v>
+        <v>4.8738919999999997</v>
       </c>
       <c r="T18" s="5">
-        <v>5.0561290000000003</v>
+        <v>5.2971000000000004</v>
       </c>
       <c r="U18" s="5">
-        <v>3.6124390000000002</v>
+        <v>2.7847430000000002</v>
       </c>
       <c r="V18" s="5">
-        <v>4.1765699999999999</v>
+        <v>3.6219220000000001</v>
       </c>
       <c r="W18" s="5">
-        <v>4.3344829999999996</v>
+        <v>3.6699389999999998</v>
       </c>
       <c r="X18" s="5">
-        <v>5.6544109999999996</v>
+        <v>5.8538420000000002</v>
       </c>
       <c r="Y18" s="5">
-        <v>5.0167489999999999</v>
+        <v>4.4873099999999999</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1">
@@ -3982,35 +3879,35 @@
       </c>
       <c r="C19" s="19">
         <f t="shared" si="12"/>
-        <v>-0.62185599999999996</v>
+        <v>-0.84017399999999998</v>
       </c>
       <c r="D19" s="19">
         <f t="shared" si="13"/>
-        <v>0.485039</v>
+        <v>-0.68956399999999995</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="14"/>
-        <v>-1.924153</v>
+        <v>-2.3965839999999998</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="15"/>
-        <v>-0.61725799999999997</v>
+        <v>-0.95904100000000003</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="16"/>
-        <v>1.9060000000000001E-2</v>
+        <v>6.2378999999999997E-2</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="17"/>
-        <v>-1.3093630000000001</v>
+        <v>-2.5090949999999999</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" si="18"/>
-        <v>-1.2961769999999999</v>
+        <v>-1.235096</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="19"/>
-        <v>-0.89732999999999996</v>
+        <v>-1.2249190000000001</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="20"/>
@@ -4018,42 +3915,42 @@
       </c>
       <c r="L19" s="20">
         <f t="shared" si="21"/>
-        <v>-1.274788</v>
+        <v>-1.955344</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="58"/>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="3">
-        <v>-0.62185599999999996</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0.485039</v>
-      </c>
-      <c r="R19" s="3">
-        <v>-1.924153</v>
-      </c>
-      <c r="S19" s="3">
-        <v>-0.61725799999999997</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1.9060000000000001E-2</v>
-      </c>
-      <c r="U19" s="3">
-        <v>-1.3093630000000001</v>
-      </c>
-      <c r="V19" s="3">
-        <v>-1.2961769999999999</v>
-      </c>
-      <c r="W19" s="3">
-        <v>-0.89732999999999996</v>
-      </c>
-      <c r="X19" s="3">
+      <c r="P19" s="5">
+        <v>-0.84017399999999998</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>-0.68956399999999995</v>
+      </c>
+      <c r="R19" s="5">
+        <v>-2.3965839999999998</v>
+      </c>
+      <c r="S19" s="5">
+        <v>-0.95904100000000003</v>
+      </c>
+      <c r="T19" s="5">
+        <v>6.2378999999999997E-2</v>
+      </c>
+      <c r="U19" s="5">
+        <v>-2.5090949999999999</v>
+      </c>
+      <c r="V19" s="5">
+        <v>-1.235096</v>
+      </c>
+      <c r="W19" s="5">
+        <v>-1.2249190000000001</v>
+      </c>
+      <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Y19" s="3">
-        <v>-1.274788</v>
+      <c r="Y19" s="5">
+        <v>-1.955344</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -4201,10 +4098,10 @@
         <v>39.924453999999997</v>
       </c>
       <c r="X22" s="3">
-        <v>3771.3295800000001</v>
+        <v>3771.9670099999998</v>
       </c>
       <c r="Y22" s="3">
-        <v>134.00175999999999</v>
+        <v>134.01220000000001</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1">
@@ -4215,31 +4112,31 @@
       </c>
       <c r="D23" s="21">
         <f t="shared" ref="D23:D28" si="23">P23</f>
-        <v>904.97552299999995</v>
+        <v>1160.152554</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" ref="E23:E28" si="24">Q23</f>
-        <v>898.92678599999999</v>
+        <v>981.82903999999996</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" ref="F23:F28" si="25">R23</f>
-        <v>96.815645000000004</v>
+        <v>95.868577000000002</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" ref="G23:G28" si="26">S23</f>
-        <v>380.92577699999998</v>
+        <v>481.16753199999999</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" ref="H23:H28" si="27">T23</f>
-        <v>50.857877000000002</v>
+        <v>68.348928000000001</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" ref="I23:I28" si="28">U23</f>
-        <v>29.575050999999998</v>
+        <v>29.404806000000001</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" ref="J23:J28" si="29">V23</f>
-        <v>33.068381000000002</v>
+        <v>40.001116000000003</v>
       </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
@@ -4249,34 +4146,34 @@
         <v>10</v>
       </c>
       <c r="P23" s="5">
-        <v>904.97552299999995</v>
+        <v>1160.152554</v>
       </c>
       <c r="Q23" s="5">
-        <v>898.92678599999999</v>
+        <v>981.82903999999996</v>
       </c>
       <c r="R23" s="5">
-        <v>96.815645000000004</v>
+        <v>95.868577000000002</v>
       </c>
       <c r="S23" s="5">
-        <v>380.92577699999998</v>
+        <v>481.16753199999999</v>
       </c>
       <c r="T23" s="5">
-        <v>50.857877000000002</v>
+        <v>68.348928000000001</v>
       </c>
       <c r="U23" s="5">
-        <v>29.575050999999998</v>
+        <v>29.404806000000001</v>
       </c>
       <c r="V23" s="5">
-        <v>33.068381000000002</v>
+        <v>40.001116000000003</v>
       </c>
       <c r="W23" s="5">
-        <v>101.570238</v>
+        <v>118.018603</v>
       </c>
       <c r="X23" s="5">
-        <v>8677.0454200000004</v>
+        <v>11629.799129999999</v>
       </c>
       <c r="Y23" s="5">
-        <v>267.28946000000002</v>
+        <v>302.32461999999998</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="27.75" thickBot="1">
@@ -4287,31 +4184,31 @@
       </c>
       <c r="D24" s="19">
         <f t="shared" si="23"/>
-        <v>69.303438999999997</v>
+        <v>68.760437999999994</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="24"/>
-        <v>75.127742999999995</v>
+        <v>80.299211</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="25"/>
-        <v>74.866545000000002</v>
+        <v>85.749343999999994</v>
       </c>
       <c r="G24" s="19">
         <f t="shared" si="26"/>
-        <v>68.584204</v>
+        <v>67.970061000000001</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="27"/>
-        <v>67.372298999999998</v>
+        <v>67.412968000000006</v>
       </c>
       <c r="I24" s="19">
         <f t="shared" si="28"/>
-        <v>81.735203999999996</v>
+        <v>82.318020000000004</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="29"/>
-        <v>70.570554999999999</v>
+        <v>78.444363999999993</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
@@ -4321,34 +4218,34 @@
         <v>11</v>
       </c>
       <c r="P24" s="3">
-        <v>69.303438999999997</v>
+        <v>68.760437999999994</v>
       </c>
       <c r="Q24" s="3">
-        <v>75.127742999999995</v>
+        <v>80.299211</v>
       </c>
       <c r="R24" s="3">
-        <v>74.866545000000002</v>
+        <v>85.749343999999994</v>
       </c>
       <c r="S24" s="3">
-        <v>68.584204</v>
+        <v>67.970061000000001</v>
       </c>
       <c r="T24" s="3">
-        <v>67.372298999999998</v>
+        <v>67.412968000000006</v>
       </c>
       <c r="U24" s="3">
-        <v>81.735203999999996</v>
+        <v>82.318020000000004</v>
       </c>
       <c r="V24" s="3">
-        <v>70.570554999999999</v>
+        <v>78.444363999999993</v>
       </c>
       <c r="W24" s="3">
-        <v>72.940483</v>
+        <v>78.741881000000006</v>
       </c>
       <c r="X24" s="3">
-        <v>55.733876000000002</v>
+        <v>56.885880999999998</v>
       </c>
       <c r="Y24" s="3">
-        <v>66.951645999999997</v>
+        <v>66.189173999999994</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="27.75" thickBot="1">
@@ -4359,31 +4256,31 @@
       </c>
       <c r="D25" s="21">
         <f t="shared" si="23"/>
-        <v>3.6275080000000002</v>
+        <v>3.5990859999999998</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="24"/>
-        <v>3.932366</v>
+        <v>4.2030529999999997</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="25"/>
-        <v>3.9186939999999999</v>
+        <v>4.4883259999999998</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="26"/>
-        <v>3.589861</v>
+        <v>3.5577160000000001</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="27"/>
-        <v>3.526427</v>
+        <v>3.528556</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="28"/>
-        <v>4.2782159999999996</v>
+        <v>4.3087220000000004</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="29"/>
-        <v>3.693832</v>
+        <v>4.1059659999999996</v>
       </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
@@ -4393,34 +4290,34 @@
         <v>12</v>
       </c>
       <c r="P25" s="5">
-        <v>3.6275080000000002</v>
+        <v>3.5990859999999998</v>
       </c>
       <c r="Q25" s="5">
-        <v>3.932366</v>
+        <v>4.2030529999999997</v>
       </c>
       <c r="R25" s="5">
-        <v>3.9186939999999999</v>
+        <v>4.4883259999999998</v>
       </c>
       <c r="S25" s="5">
-        <v>3.589861</v>
+        <v>3.5577160000000001</v>
       </c>
       <c r="T25" s="5">
-        <v>3.526427</v>
+        <v>3.528556</v>
       </c>
       <c r="U25" s="5">
-        <v>4.2782159999999996</v>
+        <v>4.3087220000000004</v>
       </c>
       <c r="V25" s="5">
-        <v>3.693832</v>
+        <v>4.1059659999999996</v>
       </c>
       <c r="W25" s="5">
-        <v>3.817879</v>
+        <v>4.1215380000000001</v>
       </c>
       <c r="X25" s="5">
-        <v>2.9172440000000002</v>
+        <v>2.9775429999999998</v>
       </c>
       <c r="Y25" s="5">
-        <v>3.5044089999999999</v>
+        <v>3.4645000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1">
@@ -4431,31 +4328,31 @@
       </c>
       <c r="D26" s="14">
         <f t="shared" si="23"/>
-        <v>1.1520820000000001</v>
+        <v>1.758907</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="24"/>
-        <v>1.660631</v>
+        <v>1.906004</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="25"/>
-        <v>0.77174500000000001</v>
+        <v>0.754413</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="26"/>
-        <v>1.173117</v>
+        <v>1.7449790000000001</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="27"/>
-        <v>1.2870729999999999</v>
+        <v>2.0736439999999998</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="28"/>
-        <v>0.92703100000000005</v>
+        <v>0.91593800000000003</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="29"/>
-        <v>1.51112</v>
+        <v>2.0375719999999999</v>
       </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
@@ -4465,34 +4362,34 @@
         <v>13</v>
       </c>
       <c r="P26" s="3">
-        <v>1.1520820000000001</v>
+        <v>1.758907</v>
       </c>
       <c r="Q26" s="3">
-        <v>1.660631</v>
+        <v>1.906004</v>
       </c>
       <c r="R26" s="3">
-        <v>0.77174500000000001</v>
+        <v>0.754413</v>
       </c>
       <c r="S26" s="3">
-        <v>1.173117</v>
+        <v>1.7449790000000001</v>
       </c>
       <c r="T26" s="3">
-        <v>1.2870729999999999</v>
+        <v>2.0736439999999998</v>
       </c>
       <c r="U26" s="3">
-        <v>0.92703100000000005</v>
+        <v>0.91593800000000003</v>
       </c>
       <c r="V26" s="3">
-        <v>1.51112</v>
+        <v>2.0375719999999999</v>
       </c>
       <c r="W26" s="3">
-        <v>1.5440609999999999</v>
+        <v>1.956048</v>
       </c>
       <c r="X26" s="3">
-        <v>1.3007919999999999</v>
+        <v>2.0832190000000002</v>
       </c>
       <c r="Y26" s="3">
-        <v>0.99467099999999997</v>
+        <v>1.2559480000000001</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1">
@@ -4503,31 +4400,31 @@
       </c>
       <c r="D27" s="21">
         <f t="shared" si="23"/>
-        <v>2.9173119999999999</v>
+        <v>3.276602</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="24"/>
-        <v>3.4402170000000001</v>
+        <v>3.0356589999999999</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="25"/>
-        <v>2.0797330000000001</v>
+        <v>1.6517170000000001</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="26"/>
-        <v>2.9752679999999998</v>
+        <v>3.2905790000000001</v>
       </c>
       <c r="H27" s="21">
         <f t="shared" si="27"/>
-        <v>3.2189839999999998</v>
+        <v>3.6746620000000001</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="28"/>
-        <v>2.2154219999999998</v>
+        <v>1.9031530000000001</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="29"/>
-        <v>3.453338</v>
+        <v>3.2385220000000001</v>
       </c>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
@@ -4537,34 +4434,34 @@
         <v>14</v>
       </c>
       <c r="P27" s="5">
-        <v>2.9173119999999999</v>
+        <v>3.276602</v>
       </c>
       <c r="Q27" s="5">
-        <v>3.4402170000000001</v>
+        <v>3.0356589999999999</v>
       </c>
       <c r="R27" s="5">
-        <v>2.0797330000000001</v>
+        <v>1.6517170000000001</v>
       </c>
       <c r="S27" s="5">
-        <v>2.9752679999999998</v>
+        <v>3.2905790000000001</v>
       </c>
       <c r="T27" s="5">
-        <v>3.2189839999999998</v>
+        <v>3.6746620000000001</v>
       </c>
       <c r="U27" s="5">
-        <v>2.2154219999999998</v>
+        <v>1.9031530000000001</v>
       </c>
       <c r="V27" s="5">
-        <v>3.453338</v>
+        <v>3.2385220000000001</v>
       </c>
       <c r="W27" s="5">
-        <v>3.3832439999999999</v>
+        <v>3.136857</v>
       </c>
       <c r="X27" s="5">
-        <v>3.9442819999999998</v>
+        <v>4.3794969999999998</v>
       </c>
       <c r="Y27" s="5">
-        <v>2.7813850000000002</v>
+        <v>2.7990240000000002</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1">
@@ -4575,31 +4472,31 @@
       </c>
       <c r="D28" s="19">
         <f t="shared" si="23"/>
-        <v>-0.45771800000000001</v>
+        <v>-0.62383699999999997</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="24"/>
-        <v>0.81606400000000001</v>
+        <v>-0.101422</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="25"/>
-        <v>-1.231209</v>
+        <v>-1.757053</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="26"/>
-        <v>-0.40536299999999997</v>
+        <v>-0.65996200000000005</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="27"/>
-        <v>-8.4142999999999996E-2</v>
+        <v>-4.0837999999999999E-2</v>
       </c>
       <c r="I28" s="19">
         <f t="shared" si="28"/>
-        <v>-0.74237699999999995</v>
+        <v>-1.6789620000000001</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="29"/>
-        <v>0.49551099999999998</v>
+        <v>9.0204999999999994E-2</v>
       </c>
       <c r="K28" s="55"/>
       <c r="L28" s="55"/>
@@ -4609,34 +4506,34 @@
         <v>36</v>
       </c>
       <c r="P28" s="5">
-        <v>-0.45771800000000001</v>
+        <v>-0.62383699999999997</v>
       </c>
       <c r="Q28" s="5">
-        <v>0.81606400000000001</v>
+        <v>-0.101422</v>
       </c>
       <c r="R28" s="5">
-        <v>-1.231209</v>
+        <v>-1.757053</v>
       </c>
       <c r="S28" s="5">
-        <v>-0.40536299999999997</v>
+        <v>-0.65996200000000005</v>
       </c>
       <c r="T28" s="5">
-        <v>-8.4142999999999996E-2</v>
+        <v>-4.0837999999999999E-2</v>
       </c>
       <c r="U28" s="5">
-        <v>-0.74237699999999995</v>
+        <v>-1.6789620000000001</v>
       </c>
       <c r="V28" s="5">
-        <v>0.49551099999999998</v>
+        <v>9.0204999999999994E-2</v>
       </c>
       <c r="W28" s="5">
-        <v>0.55503400000000003</v>
+        <v>-3.9181000000000001E-2</v>
       </c>
       <c r="X28" s="5">
         <v>0</v>
       </c>
       <c r="Y28" s="5">
-        <v>-0.73131000000000002</v>
+        <v>-1.317571</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -4691,10 +4588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4801,15 +4698,15 @@
       </c>
       <c r="C5" s="14">
         <f>Sharpe!C8</f>
-        <v>0.59180999999999995</v>
+        <v>0.28197100000000003</v>
       </c>
       <c r="D5" s="14">
         <f>Sharpe!C17</f>
-        <v>1.1297839999999999</v>
+        <v>1.7303219999999999</v>
       </c>
       <c r="E5" s="15">
         <f>Sharpe!D26</f>
-        <v>1.1520820000000001</v>
+        <v>1.758907</v>
       </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
@@ -4866,15 +4763,15 @@
       </c>
       <c r="C6" s="16">
         <f>Sharpe!F8</f>
-        <v>0.58580600000000005</v>
+        <v>0.26315300000000003</v>
       </c>
       <c r="D6" s="16">
         <f>Sharpe!F17</f>
-        <v>1.1322639999999999</v>
+        <v>1.693376</v>
       </c>
       <c r="E6" s="17">
         <f>Sharpe!G26</f>
-        <v>1.173117</v>
+        <v>1.7449790000000001</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -4931,15 +4828,15 @@
       </c>
       <c r="C7" s="14">
         <f>Sharpe!K8</f>
-        <v>0.64082799999999995</v>
+        <v>0.36190800000000001</v>
       </c>
       <c r="D7" s="14">
         <f>Sharpe!K17</f>
-        <v>1.279188</v>
+        <v>2.0547840000000002</v>
       </c>
       <c r="E7" s="18">
         <f>Sharpe!I26</f>
-        <v>0.92703100000000005</v>
+        <v>0.91593800000000003</v>
       </c>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
@@ -4996,15 +4893,15 @@
       </c>
       <c r="C8" s="16">
         <f>Sharpe!L8</f>
-        <v>0.646976</v>
+        <v>0.12625700000000001</v>
       </c>
       <c r="D8" s="16">
         <f>Sharpe!L17</f>
-        <v>0.97303399999999995</v>
+        <v>1.2316510000000001</v>
       </c>
       <c r="E8" s="17">
         <f>Sharpe!J26</f>
-        <v>1.51112</v>
+        <v>2.0375719999999999</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
@@ -5112,13 +5009,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E11" s="41">
-        <v>1.4880541559428501E-2</v>
+        <v>2.2450330317610899E-3</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
@@ -5142,13 +5039,13 @@
         <v>20</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E12" s="43">
-        <v>0.188400655402714</v>
+        <v>1.37330733311283E-2</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
@@ -5172,13 +5069,13 @@
         <v>40</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="35">
-        <v>0.119935711228405</v>
+        <v>0.104564445725842</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
@@ -5202,13 +5099,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>59</v>
-      </c>
       <c r="E14" s="43">
-        <v>1.8389042420019E-3</v>
+        <v>4.41465557317998E-3</v>
       </c>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
@@ -5264,7 +5161,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="35">
-        <v>1.1006020060829499E-2</v>
+        <v>1.3125844929008699E-2</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
@@ -5316,13 +5213,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="43">
-        <v>1.5456500565499899E-3</v>
+        <v>2.0813508159249201E-3</v>
       </c>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -5382,13 +5279,13 @@
         <v>38</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E17" s="35">
-        <v>2.53124860023188E-2</v>
+        <v>5.0909310941217797E-2</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -5412,13 +5309,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E18" s="51">
-        <v>5.91489710486044E-2</v>
+        <v>7.7694557926539398E-2</v>
       </c>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
@@ -5460,7 +5357,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1">
+    <row r="20" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="52"/>
       <c r="B20" s="12" t="s">
         <v>16</v>
@@ -5505,7 +5402,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="52"/>
       <c r="B21" s="9" t="s">
         <v>22</v>
@@ -5556,7 +5453,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1">
+    <row r="22" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="52"/>
       <c r="B22" s="11" t="s">
         <v>20</v>
@@ -5607,7 +5504,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" thickBot="1">
+    <row r="23" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A23" s="52"/>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -5651,7 +5548,7 @@
         <v>1.7402963642387699E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1">
+    <row r="24" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="62" t="s">
         <v>7</v>
@@ -5695,7 +5592,7 @@
         <v>2.3611051743154601E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15.75" thickBot="1">
+    <row r="25" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A25" s="52"/>
       <c r="B25" s="10" t="s">
         <v>19</v>
@@ -5739,7 +5636,7 @@
         <v>1.8566169316022299E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1">
+    <row r="26" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A26" s="52"/>
       <c r="B26" s="62" t="s">
         <v>17</v>
@@ -5783,7 +5680,7 @@
         <v>2.1236542980237302E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1">
+    <row r="27" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="52"/>
       <c r="B27" s="11" t="s">
         <v>50</v>
@@ -5827,7 +5724,7 @@
         <v>2.2377719021100698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1">
+    <row r="28" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="52"/>
       <c r="B28" s="11" t="s">
         <v>18</v>
@@ -5871,7 +5768,7 @@
         <v>1.11214542362184E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1">
+    <row r="29" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="52"/>
       <c r="B29" s="62" t="s">
         <v>23</v>
@@ -5915,10 +5812,10 @@
         <v>1.25239648154249E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1">
+    <row r="30" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A30" s="52"/>
       <c r="B30" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="63">
         <v>0.24064627999999999</v>
@@ -5948,7 +5845,7 @@
       </c>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" s="52"/>
       <c r="B31" s="40"/>
       <c r="C31" s="42"/>
@@ -6096,14 +5993,14 @@
       <c r="E47" s="38"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1">
       <c r="B48" s="13"/>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
       <c r="E48" s="38"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="2:18" ht="15.75" thickBot="1">
+    <row r="49" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C49" s="39" t="s">
         <v>41</v>
       </c>
@@ -6112,7 +6009,7 @@
       </c>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="2:18" ht="15.75" thickBot="1">
+    <row r="50" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C50" s="46">
         <v>10</v>
       </c>
@@ -6121,7 +6018,7 @@
       </c>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="2:18" ht="15.75" thickBot="1">
+    <row r="51" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C51" s="47">
         <v>20</v>
       </c>
@@ -6130,7 +6027,7 @@
       </c>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1">
+    <row r="52" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C52" s="46">
         <v>40</v>
       </c>
@@ -6139,7 +6036,7 @@
       </c>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="2:18" ht="15.75" thickBot="1">
+    <row r="53" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C53" s="45" t="s">
         <v>31</v>
       </c>
@@ -6148,7 +6045,7 @@
       </c>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1">
+    <row r="54" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C54" s="44" t="s">
         <v>35</v>
       </c>
@@ -6157,7 +6054,7 @@
       </c>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="2:18" ht="15.75" thickBot="1">
+    <row r="55" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C55" s="45" t="s">
         <v>37</v>
       </c>
@@ -6166,7 +6063,7 @@
       </c>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="2:18" ht="15.75" thickBot="1">
+    <row r="56" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C56" s="44" t="s">
         <v>38</v>
       </c>
@@ -6175,7 +6072,7 @@
       </c>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="2:18" ht="15.75" thickBot="1">
+    <row r="57" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="C57" s="45" t="s">
         <v>37</v>
       </c>
@@ -6193,7 +6090,7 @@
         <v>-0.19201994999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" hidden="1">
       <c r="J58" s="33"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -6211,7 +6108,7 @@
         <v>-0.17044218999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" hidden="1">
       <c r="J59" s="33"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
@@ -6220,7 +6117,7 @@
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
     </row>
-    <row r="60" spans="2:18" ht="15.75" thickBot="1">
+    <row r="60" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="B60" s="12"/>
       <c r="C60" s="12" t="s">
         <v>32</v>
@@ -6239,7 +6136,7 @@
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
     </row>
-    <row r="61" spans="2:18" ht="15.75" thickBot="1">
+    <row r="61" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="B61" s="9" t="s">
         <v>7</v>
       </c>
@@ -6260,7 +6157,7 @@
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
     </row>
-    <row r="62" spans="2:18" ht="15.75" thickBot="1">
+    <row r="62" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="B62" s="10" t="s">
         <v>8</v>
       </c>
@@ -6281,7 +6178,7 @@
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
     </row>
-    <row r="63" spans="2:18" ht="15.75" thickBot="1">
+    <row r="63" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="B63" s="11" t="s">
         <v>17</v>
       </c>
@@ -6302,7 +6199,7 @@
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
     </row>
-    <row r="64" spans="2:18" ht="15.75" thickBot="1">
+    <row r="64" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="B64" s="10" t="s">
         <v>20</v>
       </c>
@@ -6323,7 +6220,7 @@
       <c r="O64" s="24"/>
       <c r="P64" s="24"/>
     </row>
-    <row r="65" spans="2:16" ht="15.75" thickBot="1">
+    <row r="65" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B65" s="11" t="s">
         <v>18</v>
       </c>
@@ -6344,7 +6241,7 @@
       <c r="O65" s="24"/>
       <c r="P65" s="24"/>
     </row>
-    <row r="66" spans="2:16" ht="15.75" thickBot="1">
+    <row r="66" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B66" s="10" t="s">
         <v>19</v>
       </c>
@@ -6365,7 +6262,7 @@
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
     </row>
-    <row r="67" spans="2:16" ht="15.75" thickBot="1">
+    <row r="67" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B67" s="11" t="s">
         <v>23</v>
       </c>
@@ -6379,7 +6276,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15.75" thickBot="1">
+    <row r="68" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B68" s="10" t="s">
         <v>21</v>
       </c>
@@ -6393,7 +6290,7 @@
         <v>-5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:16" ht="15.75" thickBot="1">
+    <row r="69" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B69" s="11" t="s">
         <v>22</v>
       </c>
@@ -6407,7 +6304,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:16" ht="15.75" thickBot="1">
+    <row r="70" spans="2:16" ht="15.75" hidden="1" thickBot="1">
       <c r="B70" s="10" t="s">
         <v>24</v>
       </c>
@@ -6421,6 +6318,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
+    <row r="71" spans="2:16" hidden="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:E30">
     <sortCondition descending="1" ref="C21:C30"/>
@@ -6507,7 +6405,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6533,16 +6431,16 @@
     <row r="2" spans="1:22">
       <c r="A2" s="66"/>
       <c r="B2" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="66" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="66" t="s">
         <v>19</v>
@@ -6551,37 +6449,37 @@
         <v>20</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I2" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="66" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="66" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="66" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R2" s="66" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="S2" s="52"/>
       <c r="T2" s="52"/>
@@ -6593,55 +6491,55 @@
         <v>25</v>
       </c>
       <c r="B3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R3" s="67">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S3" s="52"/>
       <c r="T3" s="52"/>
@@ -6653,55 +6551,55 @@
         <v>26</v>
       </c>
       <c r="B4" s="67">
-        <v>1.7094999999999999E-2</v>
+        <v>3.1080000000000001E-3</v>
       </c>
       <c r="C4" s="67">
-        <v>1.6878000000000001E-2</v>
+        <v>3.264E-3</v>
       </c>
       <c r="D4" s="67">
-        <v>1.2862999999999999E-2</v>
+        <v>2.173E-3</v>
       </c>
       <c r="E4" s="67">
-        <v>1.0649E-2</v>
+        <v>1.153E-2</v>
       </c>
       <c r="F4" s="67">
-        <v>1.4729000000000001E-2</v>
+        <v>5.2329999999999998E-3</v>
       </c>
       <c r="G4" s="67">
-        <v>1.7389000000000002E-2</v>
+        <v>-1.305E-3</v>
       </c>
       <c r="H4" s="67">
-        <v>1.2108000000000001E-2</v>
+        <v>4.6519999999999999E-3</v>
       </c>
       <c r="I4" s="67">
-        <v>1.8379E-2</v>
+        <v>-9.9400000000000009E-4</v>
       </c>
       <c r="J4" s="67">
-        <v>8.9239999999999996E-3</v>
+        <v>-2.111E-3</v>
       </c>
       <c r="K4" s="67">
-        <v>5.3554999999999998E-2</v>
+        <v>-1.0921E-2</v>
       </c>
       <c r="L4" s="67">
-        <v>1.5578E-2</v>
+        <v>-6.496E-3</v>
       </c>
       <c r="M4" s="67">
-        <v>1.397E-2</v>
+        <v>2.5179999999999998E-3</v>
       </c>
       <c r="N4" s="67">
-        <v>8.5959999999999995E-3</v>
+        <v>-1.3483999999999999E-2</v>
       </c>
       <c r="O4" s="67">
-        <v>1.3917000000000001E-2</v>
+        <v>2.5599999999999999E-4</v>
       </c>
       <c r="P4" s="67">
-        <v>1.865E-2</v>
+        <v>-7.3990000000000002E-3</v>
       </c>
       <c r="Q4" s="67">
-        <v>1.2567999999999999E-2</v>
+        <v>1.1050000000000001E-2</v>
       </c>
       <c r="R4" s="67">
-        <v>1.3388000000000001E-2</v>
+        <v>-2.63E-3</v>
       </c>
       <c r="S4" s="52"/>
       <c r="T4" s="52"/>
@@ -6713,55 +6611,55 @@
         <v>27</v>
       </c>
       <c r="B5" s="67">
-        <v>4.5643000000000003E-2</v>
+        <v>7.6090000000000005E-2</v>
       </c>
       <c r="C5" s="67">
-        <v>3.7329000000000001E-2</v>
+        <v>6.9252999999999995E-2</v>
       </c>
       <c r="D5" s="67">
-        <v>5.9896999999999999E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="E5" s="67">
-        <v>5.8358E-2</v>
+        <v>4.1141999999999998E-2</v>
       </c>
       <c r="F5" s="67">
-        <v>4.6136000000000003E-2</v>
+        <v>5.8507999999999998E-2</v>
       </c>
       <c r="G5" s="67">
-        <v>4.2922000000000002E-2</v>
+        <v>3.4585999999999999E-2</v>
       </c>
       <c r="H5" s="67">
-        <v>5.4559999999999997E-2</v>
+        <v>3.3454999999999999E-2</v>
       </c>
       <c r="I5" s="67">
-        <v>4.2054000000000001E-2</v>
+        <v>3.7691000000000002E-2</v>
       </c>
       <c r="J5" s="67">
-        <v>4.8703999999999997E-2</v>
+        <v>3.5635E-2</v>
       </c>
       <c r="K5" s="67">
-        <v>0.177035</v>
+        <v>5.0244999999999998E-2</v>
       </c>
       <c r="L5" s="67">
-        <v>8.1233E-2</v>
+        <v>3.9789999999999999E-2</v>
       </c>
       <c r="M5" s="67">
-        <v>4.9348999999999997E-2</v>
+        <v>6.5376000000000004E-2</v>
       </c>
       <c r="N5" s="67">
-        <v>5.8499000000000002E-2</v>
+        <v>4.8619999999999997E-2</v>
       </c>
       <c r="O5" s="67">
-        <v>4.8418000000000003E-2</v>
+        <v>5.7550999999999998E-2</v>
       </c>
       <c r="P5" s="67">
-        <v>5.0573E-2</v>
+        <v>4.6980000000000001E-2</v>
       </c>
       <c r="Q5" s="67">
-        <v>6.4416000000000001E-2</v>
+        <v>7.4588000000000002E-2</v>
       </c>
       <c r="R5" s="67">
-        <v>4.3944999999999998E-2</v>
+        <v>4.4734999999999997E-2</v>
       </c>
       <c r="S5" s="52"/>
       <c r="T5" s="52"/>
@@ -6773,55 +6671,55 @@
         <v>28</v>
       </c>
       <c r="B6" s="70">
-        <v>-0.100185</v>
+        <v>-0.212341</v>
       </c>
       <c r="C6" s="70">
-        <v>-5.5958000000000001E-2</v>
+        <v>-0.20938799999999999</v>
       </c>
       <c r="D6" s="70">
-        <v>-9.2172000000000004E-2</v>
+        <v>-0.23106099999999999</v>
       </c>
       <c r="E6" s="70">
-        <v>-5.0944999999999997E-2</v>
+        <v>-9.5989000000000005E-2</v>
       </c>
       <c r="F6" s="70">
-        <v>-7.6406000000000002E-2</v>
+        <v>-0.19098699999999999</v>
       </c>
       <c r="G6" s="70">
-        <v>-6.1817999999999998E-2</v>
+        <v>-8.0144999999999994E-2</v>
       </c>
       <c r="H6" s="70">
-        <v>-0.10778799999999999</v>
+        <v>-6.9223000000000007E-2</v>
       </c>
       <c r="I6" s="70">
-        <v>-4.0626000000000002E-2</v>
+        <v>-0.103875</v>
       </c>
       <c r="J6" s="70">
-        <v>-6.9896E-2</v>
+        <v>-0.1179</v>
       </c>
       <c r="K6" s="70">
-        <v>-0.123071</v>
+        <v>-0.180447</v>
       </c>
       <c r="L6" s="70">
-        <v>-0.12145599999999999</v>
+        <v>-0.14707200000000001</v>
       </c>
       <c r="M6" s="70">
-        <v>-0.115276</v>
+        <v>-0.245258</v>
       </c>
       <c r="N6" s="70">
-        <v>-9.3076000000000006E-2</v>
+        <v>-0.13822200000000001</v>
       </c>
       <c r="O6" s="70">
-        <v>-5.4005999999999998E-2</v>
+        <v>-0.21174799999999999</v>
       </c>
       <c r="P6" s="70">
-        <v>-8.6180999999999994E-2</v>
+        <v>-0.15762499999999999</v>
       </c>
       <c r="Q6" s="70">
-        <v>-0.18829199999999999</v>
+        <v>-0.20599600000000001</v>
       </c>
       <c r="R6" s="70">
-        <v>-4.4156000000000001E-2</v>
+        <v>-0.18193999999999999</v>
       </c>
       <c r="S6" s="61"/>
       <c r="T6" s="61"/>
@@ -6833,55 +6731,55 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="67">
-        <v>-9.3629999999999998E-3</v>
+        <v>-1.6688000000000001E-2</v>
       </c>
       <c r="C7" s="67">
-        <v>-3.4350000000000001E-3</v>
+        <v>-2.6421E-2</v>
       </c>
       <c r="D7" s="67">
-        <v>-1.8134999999999998E-2</v>
+        <v>-3.0828000000000001E-2</v>
       </c>
       <c r="E7" s="67">
-        <v>-3.2023000000000003E-2</v>
+        <v>-5.9329999999999999E-3</v>
       </c>
       <c r="F7" s="67">
-        <v>-2.0737999999999999E-2</v>
+        <v>-1.4931E-2</v>
       </c>
       <c r="G7" s="67">
-        <v>-7.9769999999999997E-3</v>
+        <v>-1.9067000000000001E-2</v>
       </c>
       <c r="H7" s="67">
-        <v>-1.966E-2</v>
+        <v>-7.0899999999999999E-3</v>
       </c>
       <c r="I7" s="67">
-        <v>-1.2326E-2</v>
+        <v>-2.0636000000000002E-2</v>
       </c>
       <c r="J7" s="67">
-        <v>-2.7057999999999999E-2</v>
+        <v>-1.4576E-2</v>
       </c>
       <c r="K7" s="67">
-        <v>-3.2687000000000001E-2</v>
+        <v>-2.6379E-2</v>
       </c>
       <c r="L7" s="67">
-        <v>-3.3170999999999999E-2</v>
+        <v>-2.0715999999999998E-2</v>
       </c>
       <c r="M7" s="67">
-        <v>-8.9630000000000005E-3</v>
+        <v>-2.1297E-2</v>
       </c>
       <c r="N7" s="67">
-        <v>-2.9499000000000001E-2</v>
+        <v>-3.2836999999999998E-2</v>
       </c>
       <c r="O7" s="67">
-        <v>-1.5462E-2</v>
+        <v>-3.1290999999999999E-2</v>
       </c>
       <c r="P7" s="67">
-        <v>-1.9528E-2</v>
+        <v>-3.8705999999999997E-2</v>
       </c>
       <c r="Q7" s="67">
-        <v>-2.2891999999999999E-2</v>
+        <v>-2.5892999999999999E-2</v>
       </c>
       <c r="R7" s="67">
-        <v>-2.0036000000000002E-2</v>
+        <v>-1.4929E-2</v>
       </c>
       <c r="S7" s="52"/>
       <c r="T7" s="52"/>
@@ -6893,55 +6791,55 @@
         <v>0.5</v>
       </c>
       <c r="B8" s="67">
-        <v>2.2151000000000001E-2</v>
+        <v>8.0429999999999998E-3</v>
       </c>
       <c r="C8" s="67">
-        <v>1.0789E-2</v>
+        <v>3.0019999999999999E-3</v>
       </c>
       <c r="D8" s="67">
-        <v>5.3689999999999996E-3</v>
+        <v>1.1838E-2</v>
       </c>
       <c r="E8" s="67">
-        <v>4.1199999999999999E-4</v>
+        <v>1.8502999999999999E-2</v>
       </c>
       <c r="F8" s="67">
-        <v>5.0280000000000004E-3</v>
+        <v>1.0909E-2</v>
       </c>
       <c r="G8" s="67">
-        <v>1.1346E-2</v>
+        <v>1.4419999999999999E-3</v>
       </c>
       <c r="H8" s="67">
-        <v>6.803E-3</v>
+        <v>8.8769999999999995E-3</v>
       </c>
       <c r="I8" s="67">
-        <v>3.2539999999999999E-3</v>
+        <v>1.1789999999999999E-3</v>
       </c>
       <c r="J8" s="67">
-        <v>8.2200000000000003E-4</v>
+        <v>-1.322E-3</v>
       </c>
       <c r="K8" s="67">
-        <v>-8.2799999999999996E-4</v>
+        <v>5.0049999999999999E-3</v>
       </c>
       <c r="L8" s="67">
-        <v>4.9399999999999997E-4</v>
+        <v>-4.79E-3</v>
       </c>
       <c r="M8" s="67">
-        <v>1.8370000000000001E-3</v>
+        <v>1.0995E-2</v>
       </c>
       <c r="N8" s="67">
-        <v>-1.1200999999999999E-2</v>
+        <v>-1.5065E-2</v>
       </c>
       <c r="O8" s="67">
-        <v>-1.24E-3</v>
+        <v>2.787E-3</v>
       </c>
       <c r="P8" s="67">
-        <v>7.9920000000000008E-3</v>
+        <v>-3.2899999999999997E-4</v>
       </c>
       <c r="Q8" s="67">
-        <v>5.2940000000000001E-3</v>
+        <v>1.2599000000000001E-2</v>
       </c>
       <c r="R8" s="67">
-        <v>8.5859999999999999E-3</v>
+        <v>4.2420000000000001E-3</v>
       </c>
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
@@ -6953,55 +6851,55 @@
         <v>0.75</v>
       </c>
       <c r="B9" s="67">
-        <v>3.6151000000000003E-2</v>
+        <v>3.7620000000000001E-2</v>
       </c>
       <c r="C9" s="67">
-        <v>3.0716E-2</v>
+        <v>2.4323000000000001E-2</v>
       </c>
       <c r="D9" s="67">
-        <v>2.7247E-2</v>
+        <v>3.1866999999999999E-2</v>
       </c>
       <c r="E9" s="67">
-        <v>1.5350000000000001E-2</v>
+        <v>2.9916999999999999E-2</v>
       </c>
       <c r="F9" s="67">
-        <v>3.2937000000000001E-2</v>
+        <v>3.8795999999999997E-2</v>
       </c>
       <c r="G9" s="67">
-        <v>3.2763E-2</v>
+        <v>1.2416E-2</v>
       </c>
       <c r="H9" s="67">
-        <v>4.8094999999999999E-2</v>
+        <v>2.3765999999999999E-2</v>
       </c>
       <c r="I9" s="67">
-        <v>4.1047E-2</v>
+        <v>2.3508999999999999E-2</v>
       </c>
       <c r="J9" s="67">
-        <v>2.8739000000000001E-2</v>
+        <v>1.4786000000000001E-2</v>
       </c>
       <c r="K9" s="67">
-        <v>8.4542999999999993E-2</v>
+        <v>2.2083999999999999E-2</v>
       </c>
       <c r="L9" s="67">
-        <v>6.4254000000000006E-2</v>
+        <v>1.8943999999999999E-2</v>
       </c>
       <c r="M9" s="67">
-        <v>4.7240999999999998E-2</v>
+        <v>3.9621000000000003E-2</v>
       </c>
       <c r="N9" s="67">
-        <v>4.7900999999999999E-2</v>
+        <v>1.1816E-2</v>
       </c>
       <c r="O9" s="67">
-        <v>3.3008999999999997E-2</v>
+        <v>2.9418E-2</v>
       </c>
       <c r="P9" s="67">
-        <v>5.1968E-2</v>
+        <v>1.7979999999999999E-2</v>
       </c>
       <c r="Q9" s="67">
-        <v>4.7149000000000003E-2</v>
+        <v>3.2459000000000002E-2</v>
       </c>
       <c r="R9" s="67">
-        <v>3.9176000000000002E-2</v>
+        <v>2.5104999999999999E-2</v>
       </c>
       <c r="S9" s="52"/>
       <c r="T9" s="52"/>
@@ -7013,55 +6911,55 @@
         <v>29</v>
       </c>
       <c r="B10" s="70">
-        <v>0.14325599999999999</v>
+        <v>0.20694799999999999</v>
       </c>
       <c r="C10" s="70">
-        <v>0.110473</v>
+        <v>0.17419200000000001</v>
       </c>
       <c r="D10" s="70">
-        <v>0.26519100000000001</v>
+        <v>0.14938000000000001</v>
       </c>
       <c r="E10" s="70">
-        <v>0.19455900000000001</v>
+        <v>9.3994999999999995E-2</v>
       </c>
       <c r="F10" s="70">
-        <v>0.12429999999999999</v>
+        <v>8.8089000000000001E-2</v>
       </c>
       <c r="G10" s="70">
-        <v>0.15976199999999999</v>
+        <v>7.3143E-2</v>
       </c>
       <c r="H10" s="70">
-        <v>0.11349099999999999</v>
+        <v>7.2190000000000004E-2</v>
       </c>
       <c r="I10" s="70">
-        <v>0.129967</v>
+        <v>6.8112000000000006E-2</v>
       </c>
       <c r="J10" s="70">
-        <v>0.17217099999999999</v>
+        <v>5.9784999999999998E-2</v>
       </c>
       <c r="K10" s="70">
-        <v>0.68209200000000003</v>
+        <v>4.7135000000000003E-2</v>
       </c>
       <c r="L10" s="70">
-        <v>0.27482800000000002</v>
+        <v>4.6078000000000001E-2</v>
       </c>
       <c r="M10" s="70">
-        <v>0.14190800000000001</v>
+        <v>0.136769</v>
       </c>
       <c r="N10" s="70">
-        <v>0.157744</v>
+        <v>0.123929</v>
       </c>
       <c r="O10" s="70">
-        <v>0.13852500000000001</v>
+        <v>0.12017</v>
       </c>
       <c r="P10" s="70">
-        <v>0.12859599999999999</v>
+        <v>5.8506000000000002E-2</v>
       </c>
       <c r="Q10" s="70">
-        <v>0.14511099999999999</v>
+        <v>0.202462</v>
       </c>
       <c r="R10" s="70">
-        <v>0.108027</v>
+        <v>4.1980000000000003E-2</v>
       </c>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -7097,34 +6995,34 @@
     <row r="13" spans="1:22">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -7143,34 +7041,34 @@
         <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
@@ -7189,34 +7087,34 @@
         <v>26</v>
       </c>
       <c r="B15" s="5">
-        <v>1.7284000000000001E-2</v>
+        <v>3.4580000000000001E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>1.8248E-2</v>
+        <v>9.4160000000000008E-3</v>
       </c>
       <c r="D15" s="5">
-        <v>1.0598E-2</v>
+        <v>7.9570000000000005E-3</v>
       </c>
       <c r="E15" s="5">
-        <v>1.7158E-2</v>
+        <v>6.1060000000000003E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>1.7697000000000001E-2</v>
+        <v>3.1779999999999998E-3</v>
       </c>
       <c r="G15" s="5">
-        <v>1.6677999999999998E-2</v>
+        <v>1.2086E-2</v>
       </c>
       <c r="H15" s="5">
-        <v>1.1547999999999999E-2</v>
+        <v>1.0596E-2</v>
       </c>
       <c r="I15" s="5">
-        <v>1.2315E-2</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>1.6650000000000002E-2</v>
+        <v>5.3839999999999999E-3</v>
       </c>
       <c r="K15" s="5">
-        <v>1.8072000000000001E-2</v>
+        <v>1.009E-2</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
@@ -7235,34 +7133,34 @@
         <v>27</v>
       </c>
       <c r="B16" s="3">
-        <v>4.6630999999999999E-2</v>
+        <v>6.7683999999999994E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>5.1397999999999999E-2</v>
+        <v>5.8194999999999997E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>5.1041000000000003E-2</v>
+        <v>5.4723000000000001E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>4.5883E-2</v>
+        <v>5.4574999999999999E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>4.7292000000000001E-2</v>
+        <v>4.6315000000000002E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>5.4982000000000003E-2</v>
+        <v>3.5368999999999998E-2</v>
       </c>
       <c r="H16" s="3">
-        <v>4.5612E-2</v>
+        <v>3.4785999999999997E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>4.6816000000000003E-2</v>
+        <v>3.2496999999999998E-2</v>
       </c>
       <c r="J16" s="3">
-        <v>4.6249999999999999E-2</v>
+        <v>3.2578000000000003E-2</v>
       </c>
       <c r="K16" s="3">
-        <v>3.7276999999999998E-2</v>
+        <v>3.4269000000000001E-2</v>
       </c>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
@@ -7281,34 +7179,34 @@
         <v>28</v>
       </c>
       <c r="B17" s="28">
-        <v>-6.6962999999999995E-2</v>
+        <v>-0.187915</v>
       </c>
       <c r="C17" s="28">
-        <v>-6.0685999999999997E-2</v>
+        <v>-0.13311400000000001</v>
       </c>
       <c r="D17" s="28">
-        <v>-9.1042999999999999E-2</v>
+        <v>-0.118127</v>
       </c>
       <c r="E17" s="28">
-        <v>-6.5672999999999995E-2</v>
+        <v>-0.12973299999999999</v>
       </c>
       <c r="F17" s="28">
-        <v>-6.4107999999999998E-2</v>
+        <v>-8.2141000000000006E-2</v>
       </c>
       <c r="G17" s="28">
-        <v>-6.8754999999999997E-2</v>
+        <v>-6.1201999999999999E-2</v>
       </c>
       <c r="H17" s="28">
-        <v>-7.2639999999999996E-2</v>
+        <v>-6.4283000000000007E-2</v>
       </c>
       <c r="I17" s="28">
-        <v>-6.9387000000000004E-2</v>
+        <v>-7.3014999999999997E-2</v>
       </c>
       <c r="J17" s="28">
-        <v>-0.100185</v>
+        <v>-6.9223000000000007E-2</v>
       </c>
       <c r="K17" s="28">
-        <v>-5.5958000000000001E-2</v>
+        <v>-6.5365999999999994E-2</v>
       </c>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
@@ -7327,34 +7225,34 @@
         <v>0.25</v>
       </c>
       <c r="B18" s="3">
-        <v>-6.7080000000000004E-3</v>
+        <v>-3.2231000000000003E-2</v>
       </c>
       <c r="C18" s="3">
-        <v>-2.1583000000000001E-2</v>
+        <v>-2.0095999999999999E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>-2.0834999999999999E-2</v>
+        <v>-1.1934E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>-4.6730000000000001E-3</v>
+        <v>-1.7878000000000002E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>-7.842E-3</v>
+        <v>-2.2106000000000001E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>-2.1516E-2</v>
+        <v>-4.5440000000000003E-3</v>
       </c>
       <c r="H18" s="3">
-        <v>-2.2466E-2</v>
+        <v>-6.6499999999999997E-3</v>
       </c>
       <c r="I18" s="3">
-        <v>-2.1215000000000001E-2</v>
+        <v>-5.9329999999999999E-3</v>
       </c>
       <c r="J18" s="3">
-        <v>-1.1235E-2</v>
+        <v>-7.0899999999999999E-3</v>
       </c>
       <c r="K18" s="3">
-        <v>-3.2039999999999998E-3</v>
+        <v>-1.1257E-2</v>
       </c>
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
@@ -7373,34 +7271,34 @@
         <v>0.5</v>
       </c>
       <c r="B19" s="5">
-        <v>1.5973000000000001E-2</v>
+        <v>6.9540000000000001E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>1.9129E-2</v>
+        <v>1.4012E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>5.4929999999999996E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>1.1186E-2</v>
+        <v>9.6489999999999996E-3</v>
       </c>
       <c r="F19" s="5">
-        <v>1.3390000000000001E-2</v>
+        <v>1.521E-2</v>
       </c>
       <c r="G19" s="5">
-        <v>8.2279999999999992E-3</v>
+        <v>1.4904000000000001E-2</v>
       </c>
       <c r="H19" s="5">
-        <v>1.2678999999999999E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="I19" s="5">
-        <v>1.4599000000000001E-2</v>
+        <v>1.3416000000000001E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>2.2151000000000001E-2</v>
+        <v>8.8769999999999995E-3</v>
       </c>
       <c r="K19" s="5">
-        <v>1.3056E-2</v>
+        <v>1.5103E-2</v>
       </c>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -7419,34 +7317,34 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="3">
-        <v>3.8681E-2</v>
+        <v>3.3772000000000003E-2</v>
       </c>
       <c r="C20" s="3">
-        <v>4.5023000000000001E-2</v>
+        <v>3.2412000000000003E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>3.5099999999999999E-2</v>
+        <v>3.2780999999999998E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>3.8809000000000003E-2</v>
+        <v>3.2071000000000002E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>3.0384999999999999E-2</v>
+        <v>2.4754999999999999E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>5.2957999999999998E-2</v>
+        <v>3.3017999999999999E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>4.5353999999999998E-2</v>
+        <v>3.1553999999999999E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>4.3496E-2</v>
+        <v>2.2003000000000002E-2</v>
       </c>
       <c r="J20" s="3">
-        <v>3.9490999999999998E-2</v>
+        <v>2.3765999999999999E-2</v>
       </c>
       <c r="K20" s="3">
-        <v>3.5455E-2</v>
+        <v>3.7916999999999999E-2</v>
       </c>
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
@@ -7465,34 +7363,34 @@
         <v>29</v>
       </c>
       <c r="B21" s="28">
-        <v>0.133101</v>
+        <v>0.24492</v>
       </c>
       <c r="C21" s="28">
-        <v>0.14874200000000001</v>
+        <v>0.212115</v>
       </c>
       <c r="D21" s="28">
-        <v>0.14940300000000001</v>
+        <v>0.203677</v>
       </c>
       <c r="E21" s="28">
-        <v>0.13117100000000001</v>
+        <v>0.20184299999999999</v>
       </c>
       <c r="F21" s="28">
-        <v>0.139686</v>
+        <v>0.12227200000000001</v>
       </c>
       <c r="G21" s="28">
-        <v>0.13832700000000001</v>
+        <v>8.6314000000000002E-2</v>
       </c>
       <c r="H21" s="28">
-        <v>0.127883</v>
+        <v>7.5198000000000001E-2</v>
       </c>
       <c r="I21" s="28">
-        <v>0.13395299999999999</v>
+        <v>7.3958999999999997E-2</v>
       </c>
       <c r="J21" s="28">
-        <v>0.14325599999999999</v>
+        <v>7.2190000000000004E-2</v>
       </c>
       <c r="K21" s="28">
-        <v>0.110473</v>
+        <v>6.7515000000000006E-2</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="61"/>
@@ -7819,8 +7717,8 @@
       <c r="V45" s="52"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A13:K21">
-    <sortCondition descending="1" ref="A21:K21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A13:V21">
+    <sortCondition descending="1" ref="A21:V21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
